--- a/template/horaire.xlsx
+++ b/template/horaire.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/etiennerivard/notes_de_cours/projetpersonnel/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F52659C-E777-F64A-B701-42AC293E8403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89BD188-3372-E54A-A9B5-9EFC6458A6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3000" yWindow="1580" windowWidth="27080" windowHeight="16440" xr2:uid="{4696F4E7-E751-AB46-8D30-A385E7EE1466}"/>
   </bookViews>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45502.375</v>
+        <v>45866.375</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -478,7 +478,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45503.375</v>
+        <v>45867.375</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -492,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45504.375</v>
+        <v>45868.375</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -506,7 +506,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>45505.375</v>
+        <v>45869.375</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -520,7 +520,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>45509.375</v>
+        <v>45873.375</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -534,7 +534,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>45510.375</v>
+        <v>45874.375</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -548,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>45511.375</v>
+        <v>45875.375</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -562,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>45512.375</v>
+        <v>45876.375</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
